--- a/Code/Results/Cases/Case_8_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.628790910731425</v>
+        <v>2.639156658623961</v>
       </c>
       <c r="C2">
-        <v>0.6033500971696526</v>
+        <v>0.6388849952649593</v>
       </c>
       <c r="D2">
-        <v>0.06434965709514273</v>
+        <v>0.06559816543000352</v>
       </c>
       <c r="E2">
-        <v>0.06189592358017726</v>
+        <v>0.0644136183210664</v>
       </c>
       <c r="F2">
-        <v>0.5023829303491212</v>
+        <v>0.4596765465640757</v>
       </c>
       <c r="G2">
-        <v>0.0008035716262904445</v>
+        <v>0.001209616390849842</v>
       </c>
       <c r="H2">
-        <v>0.001776715473524426</v>
+        <v>0.001030445217292786</v>
       </c>
       <c r="I2">
-        <v>0.001216382024759266</v>
+        <v>0.000705737210211943</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3069803096535537</v>
+        <v>0.2687291988792602</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1414470530514116</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06801012216963365</v>
       </c>
       <c r="N2">
-        <v>0.1741780842735068</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.440541059617118</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1823005872313601</v>
       </c>
       <c r="Q2">
-        <v>1.479984141872791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4432934025410873</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.323893448640533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.290941816500549</v>
+        <v>2.30219718310525</v>
       </c>
       <c r="C3">
-        <v>0.5437294951437082</v>
+        <v>0.5719460965442806</v>
       </c>
       <c r="D3">
-        <v>0.05811728230211344</v>
+        <v>0.05823444418778223</v>
       </c>
       <c r="E3">
-        <v>0.06022659877291536</v>
+        <v>0.06345214230728913</v>
       </c>
       <c r="F3">
-        <v>0.4741030282417853</v>
+        <v>0.4337190497833987</v>
       </c>
       <c r="G3">
-        <v>0.0008068063493874648</v>
+        <v>0.002450996679090239</v>
       </c>
       <c r="H3">
-        <v>0.003017601100136102</v>
+        <v>0.001868428699547731</v>
       </c>
       <c r="I3">
-        <v>0.002132100258367853</v>
+        <v>0.001090316040985861</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3137945805341822</v>
+        <v>0.2756728454460209</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1470447564969923</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06889788223047333</v>
       </c>
       <c r="N3">
-        <v>0.1562878610800027</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3843265852697471</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1644161174581669</v>
       </c>
       <c r="Q3">
-        <v>1.431279527326581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.386608928808144</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.279746058505793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.083151329358088</v>
+        <v>2.094786622468575</v>
       </c>
       <c r="C4">
-        <v>0.5072946701862406</v>
+        <v>0.5311832321986003</v>
       </c>
       <c r="D4">
-        <v>0.05429879424502104</v>
+        <v>0.05373537611224322</v>
       </c>
       <c r="E4">
-        <v>0.05917781850936654</v>
+        <v>0.06284869941002413</v>
       </c>
       <c r="F4">
-        <v>0.457319244998466</v>
+        <v>0.4180747934252764</v>
       </c>
       <c r="G4">
-        <v>0.0008088636901167644</v>
+        <v>0.003465206390240311</v>
       </c>
       <c r="H4">
-        <v>0.003975396757917082</v>
+        <v>0.002529634280082682</v>
       </c>
       <c r="I4">
-        <v>0.002932526681637349</v>
+        <v>0.001496908794104801</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3183333090122389</v>
+        <v>0.2801424817271876</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1506269561872493</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06996234631447518</v>
       </c>
       <c r="N4">
-        <v>0.1453233851515847</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3497910447617372</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1534678650695795</v>
       </c>
       <c r="Q4">
-        <v>1.403161350761238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3517622929594282</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.253458540650556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.998329530901628</v>
+        <v>2.010081614421381</v>
       </c>
       <c r="C5">
-        <v>0.4932320565471286</v>
+        <v>0.5154027662993315</v>
       </c>
       <c r="D5">
-        <v>0.0528134627239254</v>
+        <v>0.05197606220315265</v>
       </c>
       <c r="E5">
-        <v>0.0587321930150333</v>
+        <v>0.06259022375115775</v>
       </c>
       <c r="F5">
-        <v>0.4500287759393302</v>
+        <v>0.4112173250097939</v>
       </c>
       <c r="G5">
-        <v>0.0008097247869173689</v>
+        <v>0.00394152797775546</v>
       </c>
       <c r="H5">
-        <v>0.004415056223458003</v>
+        <v>0.002836004170323647</v>
       </c>
       <c r="I5">
-        <v>0.003390539471237464</v>
+        <v>0.001788479030195411</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3198725954511801</v>
+        <v>0.281661453021032</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1519368476421477</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07044620494280451</v>
       </c>
       <c r="N5">
-        <v>0.1409115077570675</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3357457977322156</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1490641830053292</v>
       </c>
       <c r="Q5">
-        <v>1.390193924672189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3375839726910215</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.241142413041402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.984182156916745</v>
+        <v>1.995950726748674</v>
       </c>
       <c r="C6">
-        <v>0.4918165226373219</v>
+        <v>0.5137087794660431</v>
       </c>
       <c r="D6">
-        <v>0.05265173724995265</v>
+        <v>0.0517688640045364</v>
       </c>
       <c r="E6">
-        <v>0.0586434875895554</v>
+        <v>0.06253618211952516</v>
       </c>
       <c r="F6">
-        <v>0.4481069848296357</v>
+        <v>0.4094100503414637</v>
       </c>
       <c r="G6">
-        <v>0.0008098744424143562</v>
+        <v>0.004027528845138961</v>
       </c>
       <c r="H6">
-        <v>0.004493797180931236</v>
+        <v>0.00289113460025503</v>
       </c>
       <c r="I6">
-        <v>0.003568752297340438</v>
+        <v>0.001952119214407411</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3196500030015059</v>
+        <v>0.2814876027701079</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1519302296478386</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07043722936462249</v>
       </c>
       <c r="N6">
-        <v>0.140243621146368</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3334566884098749</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1483955132690724</v>
       </c>
       <c r="Q6">
-        <v>1.385701566950402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3352707872364746</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.236916662850334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.081851851314468</v>
+        <v>2.093460278134785</v>
       </c>
       <c r="C7">
-        <v>0.50961915411051</v>
+        <v>0.532001796618772</v>
       </c>
       <c r="D7">
-        <v>0.05451135949650876</v>
+        <v>0.05437851544141381</v>
       </c>
       <c r="E7">
-        <v>0.05913349387695455</v>
+        <v>0.06277214893782324</v>
       </c>
       <c r="F7">
-        <v>0.4552556116284094</v>
+        <v>0.4128393820045133</v>
       </c>
       <c r="G7">
-        <v>0.0008088901269166654</v>
+        <v>0.003733662821867378</v>
       </c>
       <c r="H7">
-        <v>0.003988538029139899</v>
+        <v>0.002547172327335812</v>
       </c>
       <c r="I7">
-        <v>0.003192027666072406</v>
+        <v>0.001797320831316895</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3170368101600864</v>
+        <v>0.2776295462738254</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1493429945059042</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06935964897401181</v>
       </c>
       <c r="N7">
-        <v>0.1454408526323192</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3497207512916418</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1534466568025508</v>
       </c>
       <c r="Q7">
-        <v>1.396530204730482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3516195489762666</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.236607515911686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.512151806389284</v>
+        <v>2.522760725822423</v>
       </c>
       <c r="C8">
-        <v>0.5861236431742896</v>
+        <v>0.614095448601546</v>
       </c>
       <c r="D8">
-        <v>0.06251099636050839</v>
+        <v>0.06485097973222054</v>
       </c>
       <c r="E8">
-        <v>0.06127781776348273</v>
+        <v>0.06390951838902881</v>
       </c>
       <c r="F8">
-        <v>0.489908468358216</v>
+        <v>0.4373497867083742</v>
       </c>
       <c r="G8">
-        <v>0.000804690690668988</v>
+        <v>0.003129516275198085</v>
       </c>
       <c r="H8">
-        <v>0.002169196974285525</v>
+        <v>0.001310736828999959</v>
       </c>
       <c r="I8">
-        <v>0.001782889996878367</v>
+        <v>0.001162588114265617</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3075310358167798</v>
+        <v>0.2652048998812209</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1406087498758897</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06651401212278074</v>
       </c>
       <c r="N8">
-        <v>0.1682420339814144</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.421318424961818</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1759177581857188</v>
       </c>
       <c r="Q8">
-        <v>1.454288928072828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4236815485444581</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.265567374125638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.354088512122814</v>
+        <v>3.361282648608892</v>
       </c>
       <c r="C9">
-        <v>0.7332483097263776</v>
+        <v>0.778790907709265</v>
       </c>
       <c r="D9">
-        <v>0.0778631993582195</v>
+        <v>0.08357020690282724</v>
       </c>
       <c r="E9">
-        <v>0.06537673066044491</v>
+        <v>0.0662453848826412</v>
       </c>
       <c r="F9">
-        <v>0.5663837571860881</v>
+        <v>0.5031957848891508</v>
       </c>
       <c r="G9">
-        <v>0.0007969851574572377</v>
+        <v>0.001690024249355382</v>
       </c>
       <c r="H9">
-        <v>0.0002579427732204431</v>
+        <v>9.444421585458329E-05</v>
       </c>
       <c r="I9">
-        <v>0.0006664440188570708</v>
+        <v>0.0008949924752696958</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2941795987903326</v>
+        <v>0.2494928015016242</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1281092549081713</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0668639656354646</v>
       </c>
       <c r="N9">
-        <v>0.2128644565682407</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5614760536143422</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2204665524628311</v>
       </c>
       <c r="Q9">
-        <v>1.594365058665005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5647800603270312</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.378627331263999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.977649039955622</v>
+        <v>3.980960963774351</v>
       </c>
       <c r="C10">
-        <v>0.8536451355372208</v>
+        <v>0.9025710331719665</v>
       </c>
       <c r="D10">
-        <v>0.09057220672337252</v>
+        <v>0.1015879622966622</v>
       </c>
       <c r="E10">
-        <v>0.06832149817622701</v>
+        <v>0.0679084153914542</v>
       </c>
       <c r="F10">
-        <v>0.6156777287497448</v>
+        <v>0.5260658489214265</v>
       </c>
       <c r="G10">
-        <v>0.0007917190503888127</v>
+        <v>0.009175318702620672</v>
       </c>
       <c r="H10">
-        <v>0.0002033343881486793</v>
+        <v>0.0002387053074608403</v>
       </c>
       <c r="I10">
-        <v>0.001386900407402081</v>
+        <v>0.001816775687639272</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2800906693327541</v>
+        <v>0.2276746960448754</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1156775237062249</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06505799016876956</v>
       </c>
       <c r="N10">
-        <v>0.2343959028356863</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6574566776724424</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2409506725753232</v>
       </c>
       <c r="Q10">
-        <v>1.673996611182218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.660740722497934</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.379939147157017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.309987647414289</v>
+        <v>4.31196382685664</v>
       </c>
       <c r="C11">
-        <v>1.00216030275331</v>
+        <v>1.025105907491451</v>
       </c>
       <c r="D11">
-        <v>0.1082139518821563</v>
+        <v>0.1268905506015159</v>
       </c>
       <c r="E11">
-        <v>0.07699320618644734</v>
+        <v>0.07665302010053487</v>
       </c>
       <c r="F11">
-        <v>0.5548220528826491</v>
+        <v>0.4395109710874436</v>
       </c>
       <c r="G11">
-        <v>0.0007899310723282387</v>
+        <v>0.04298687118005518</v>
       </c>
       <c r="H11">
-        <v>0.01877291006727333</v>
+        <v>0.01878980208433845</v>
       </c>
       <c r="I11">
-        <v>0.002270488596157527</v>
+        <v>0.002731110489734512</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2278854566766917</v>
+        <v>0.1781693523712029</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09759457204421462</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04724519310672193</v>
       </c>
       <c r="N11">
-        <v>0.1557410060009232</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6388710287475519</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1589632440682678</v>
       </c>
       <c r="Q11">
-        <v>1.44327409132859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6406195515560569</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.081748033907814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.461161566517205</v>
+        <v>4.463084872432887</v>
       </c>
       <c r="C12">
-        <v>1.105507583465766</v>
+        <v>1.108576934038524</v>
       </c>
       <c r="D12">
-        <v>0.1210836279159224</v>
+        <v>0.1436033776888621</v>
       </c>
       <c r="E12">
-        <v>0.09325864162556563</v>
+        <v>0.09252625052081775</v>
       </c>
       <c r="F12">
-        <v>0.4979634839286149</v>
+        <v>0.3794203720786342</v>
       </c>
       <c r="G12">
-        <v>0.0007894185576584375</v>
+        <v>0.06731608722697757</v>
       </c>
       <c r="H12">
-        <v>0.05742987669367494</v>
+        <v>0.05743788629830959</v>
       </c>
       <c r="I12">
-        <v>0.002381421006041329</v>
+        <v>0.002805637033547193</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1944452565608952</v>
+        <v>0.1536672593217574</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08984030278466992</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03710206220780954</v>
       </c>
       <c r="N12">
-        <v>0.100629729603412</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6029232706997192</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1023227944792495</v>
       </c>
       <c r="Q12">
-        <v>1.252556592697005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6037288855545526</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8929472968645058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.479856216446478</v>
+        <v>4.482775161938434</v>
       </c>
       <c r="C13">
-        <v>1.182910748773736</v>
+        <v>1.175387301448922</v>
       </c>
       <c r="D13">
-        <v>0.131249017726077</v>
+        <v>0.1526186940810277</v>
       </c>
       <c r="E13">
-        <v>0.1158628139874729</v>
+        <v>0.114962935758264</v>
       </c>
       <c r="F13">
-        <v>0.4376260409208328</v>
+        <v>0.3369345681110048</v>
       </c>
       <c r="G13">
-        <v>0.0007898800060956993</v>
+        <v>0.0613647774966033</v>
       </c>
       <c r="H13">
-        <v>0.1131457623518344</v>
+        <v>0.1131475921770146</v>
       </c>
       <c r="I13">
-        <v>0.002204620475501073</v>
+        <v>0.002643407996417935</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1711277036148147</v>
+        <v>0.1426364399774109</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08689203026265291</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03154513630077638</v>
       </c>
       <c r="N13">
-        <v>0.06082069299714732</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5519971793919609</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.06210495549978745</v>
       </c>
       <c r="Q13">
-        <v>1.070787676930877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5523813264749933</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7731792482923652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.432758232776507</v>
+        <v>4.436804631451139</v>
       </c>
       <c r="C14">
-        <v>1.226599568668007</v>
+        <v>1.216039078423535</v>
       </c>
       <c r="D14">
-        <v>0.1372745987910378</v>
+        <v>0.1553837709459174</v>
       </c>
       <c r="E14">
-        <v>0.1356051697894216</v>
+        <v>0.1348177006694158</v>
       </c>
       <c r="F14">
-        <v>0.3939355809976988</v>
+        <v>0.3133761308712906</v>
       </c>
       <c r="G14">
-        <v>0.0007906434422063161</v>
+        <v>0.04462872140254959</v>
       </c>
       <c r="H14">
-        <v>0.1624719929958616</v>
+        <v>0.1624631040725575</v>
       </c>
       <c r="I14">
-        <v>0.0020457036310777</v>
+        <v>0.002523451004349475</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1599616001450066</v>
+        <v>0.1396748893420616</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08627032567990511</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02946828067242624</v>
       </c>
       <c r="N14">
-        <v>0.04222200792066566</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5100011306608039</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.0435778834207472</v>
       </c>
       <c r="Q14">
-        <v>0.9485365275929922</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5102867700116676</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7137628681461052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.392558183503866</v>
+        <v>4.397088784444122</v>
       </c>
       <c r="C15">
-        <v>1.231867930145256</v>
+        <v>1.222704830542</v>
       </c>
       <c r="D15">
-        <v>0.1381310235217512</v>
+        <v>0.1544219682196228</v>
       </c>
       <c r="E15">
-        <v>0.1405334714164255</v>
+        <v>0.1399770113055823</v>
       </c>
       <c r="F15">
-        <v>0.3817737326084583</v>
+        <v>0.3094842726601925</v>
       </c>
       <c r="G15">
-        <v>0.0007910538486866069</v>
+        <v>0.03617978166338887</v>
       </c>
       <c r="H15">
-        <v>0.1749757548490152</v>
+        <v>0.1749588299930167</v>
       </c>
       <c r="I15">
-        <v>0.002064458389736679</v>
+        <v>0.002578165705914515</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1584597527819387</v>
+        <v>0.1402120328046812</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08645129887552017</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02942732804135462</v>
       </c>
       <c r="N15">
-        <v>0.03889971766071554</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4966949220593335</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04036573482969885</v>
       </c>
       <c r="Q15">
-        <v>0.9176487564560887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4970330251004711</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7069522899677594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.117784179442253</v>
+        <v>4.124234243508909</v>
       </c>
       <c r="C16">
-        <v>1.162746906430698</v>
+        <v>1.171870206795347</v>
       </c>
       <c r="D16">
-        <v>0.1303395770697477</v>
+        <v>0.138545572688642</v>
       </c>
       <c r="E16">
-        <v>0.1338291582895224</v>
+        <v>0.1351737958271855</v>
       </c>
       <c r="F16">
-        <v>0.3718160622757836</v>
+        <v>0.3283824216170714</v>
       </c>
       <c r="G16">
-        <v>0.0007932168082894211</v>
+        <v>0.007976937439254428</v>
       </c>
       <c r="H16">
-        <v>0.1622512543473675</v>
+        <v>0.1621576682792778</v>
       </c>
       <c r="I16">
-        <v>0.001777080462900038</v>
+        <v>0.002325452839675002</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1679318289660952</v>
+        <v>0.1516657415332885</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08982946258433344</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03334989451544956</v>
       </c>
       <c r="N16">
-        <v>0.03892935556172361</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4672300946414651</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04117877939640202</v>
       </c>
       <c r="Q16">
-        <v>0.9165964677438438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4682105947617501</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7835500254014818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.932738084718153</v>
+        <v>3.939985043053582</v>
       </c>
       <c r="C17">
-        <v>1.086669648488197</v>
+        <v>1.107848444526724</v>
       </c>
       <c r="D17">
-        <v>0.1211698095254548</v>
+        <v>0.1263012202658302</v>
       </c>
       <c r="E17">
-        <v>0.1175353416501856</v>
+        <v>0.1198707918562576</v>
       </c>
       <c r="F17">
-        <v>0.3871831503364689</v>
+        <v>0.3530287814136699</v>
       </c>
       <c r="G17">
-        <v>0.0007944771487107084</v>
+        <v>0.002026756874096591</v>
       </c>
       <c r="H17">
-        <v>0.1245200233868644</v>
+        <v>0.1243593026899958</v>
       </c>
       <c r="I17">
-        <v>0.001706202129289736</v>
+        <v>0.002239469398671368</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1807390007336087</v>
+        <v>0.163340907518065</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09381919043101661</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03747559224200536</v>
       </c>
       <c r="N17">
-        <v>0.04722181353523425</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4666854985367337</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05014391252647599</v>
       </c>
       <c r="Q17">
-        <v>0.9797142265118453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4681341890892909</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8698605697947244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.80423532624576</v>
+        <v>3.811525752475973</v>
       </c>
       <c r="C18">
-        <v>0.9962885804007726</v>
+        <v>1.028911269715081</v>
       </c>
       <c r="D18">
-        <v>0.1099432240072815</v>
+        <v>0.114354131824939</v>
       </c>
       <c r="E18">
-        <v>0.09545551533316043</v>
+        <v>0.09814267985266412</v>
       </c>
       <c r="F18">
-        <v>0.4285099661606395</v>
+        <v>0.3931568183702581</v>
       </c>
       <c r="G18">
-        <v>0.0007950442247359493</v>
+        <v>0.0006794811089156916</v>
       </c>
       <c r="H18">
-        <v>0.07171947483870156</v>
+        <v>0.07153418313126281</v>
       </c>
       <c r="I18">
-        <v>0.001453847262999908</v>
+        <v>0.001926134276398983</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.201227784434808</v>
+        <v>0.1798697369732913</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0999093271881959</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04351213218944849</v>
       </c>
       <c r="N18">
-        <v>0.07152656964661475</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4911975911275519</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.07538134717525224</v>
       </c>
       <c r="Q18">
-        <v>1.115140989100908</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4932012660097129</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.998165710999487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.730773431729631</v>
+        <v>3.737543302209872</v>
       </c>
       <c r="C19">
-        <v>0.911238290515314</v>
+        <v>0.954552116270321</v>
       </c>
       <c r="D19">
-        <v>0.09904147707611344</v>
+        <v>0.1039095657901825</v>
       </c>
       <c r="E19">
-        <v>0.07708508917061252</v>
+        <v>0.07936135314824533</v>
       </c>
       <c r="F19">
-        <v>0.486779801553979</v>
+        <v>0.4437658924150298</v>
       </c>
       <c r="G19">
-        <v>0.0007949744846811259</v>
+        <v>0.0004363379405449841</v>
       </c>
       <c r="H19">
-        <v>0.02642679604034726</v>
+        <v>0.02627757397726782</v>
       </c>
       <c r="I19">
-        <v>0.001580776575889509</v>
+        <v>0.002085913724122257</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2294638652126437</v>
+        <v>0.2014234672005735</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1079580547370131</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05162932333229442</v>
       </c>
       <c r="N19">
-        <v>0.1191999364719436</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5351383720403646</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1243843170871415</v>
       </c>
       <c r="Q19">
-        <v>1.299740946649734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5377992989885954</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.155986025791037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.813579839780459</v>
+        <v>3.818193681489333</v>
       </c>
       <c r="C20">
-        <v>0.8305400530780105</v>
+        <v>0.884353181809189</v>
       </c>
       <c r="D20">
-        <v>0.08804225333720694</v>
+        <v>0.09593767259237751</v>
       </c>
       <c r="E20">
-        <v>0.06746423325369122</v>
+        <v>0.06758907121427971</v>
       </c>
       <c r="F20">
-        <v>0.5959959093535403</v>
+        <v>0.525625170967011</v>
       </c>
       <c r="G20">
-        <v>0.0007931209670870551</v>
+        <v>0.002473885357307637</v>
       </c>
       <c r="H20">
-        <v>0.0001201814918210253</v>
+        <v>0.0001262346647350476</v>
       </c>
       <c r="I20">
-        <v>0.001852112810602158</v>
+        <v>0.002430790569293961</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2795182735141992</v>
+        <v>0.2341990923963415</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1191144732237266</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06579950518079336</v>
       </c>
       <c r="N20">
-        <v>0.2288032065061572</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6323182715308491</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.23606705576276</v>
       </c>
       <c r="Q20">
-        <v>1.631219719019015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6358687268995027</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.397100302565804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.283888958939656</v>
+        <v>4.284136207802135</v>
       </c>
       <c r="C21">
-        <v>0.9070573865338645</v>
+        <v>0.9354452846234835</v>
       </c>
       <c r="D21">
-        <v>0.09578730759631071</v>
+        <v>0.1174630695053054</v>
       </c>
       <c r="E21">
-        <v>0.06969988746736</v>
+        <v>0.06787070693622654</v>
       </c>
       <c r="F21">
-        <v>0.6512580025548971</v>
+        <v>0.4979855451837452</v>
       </c>
       <c r="G21">
-        <v>0.0007890609616242959</v>
+        <v>0.06417733893211164</v>
       </c>
       <c r="H21">
-        <v>0.0002384306975422579</v>
+        <v>0.0002606094113695168</v>
       </c>
       <c r="I21">
-        <v>0.002771003304158803</v>
+        <v>0.003218019481748158</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2790540003458126</v>
+        <v>0.2042365429982684</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1058115862264213</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05895670376987638</v>
       </c>
       <c r="N21">
-        <v>0.2632544718716332</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7171515933088841</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2676317987708643</v>
       </c>
       <c r="Q21">
-        <v>1.748660352873316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7193378931452585</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.257290229972739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.594530052679943</v>
+        <v>4.591723892119944</v>
       </c>
       <c r="C22">
-        <v>0.9589204579332318</v>
+        <v>0.9680418733805709</v>
       </c>
       <c r="D22">
-        <v>0.1011796609473166</v>
+        <v>0.1332793497513762</v>
       </c>
       <c r="E22">
-        <v>0.07120686671093823</v>
+        <v>0.06829770766566434</v>
       </c>
       <c r="F22">
-        <v>0.6859045128005192</v>
+        <v>0.4754215756267257</v>
       </c>
       <c r="G22">
-        <v>0.0007864817268576198</v>
+        <v>0.153750330849725</v>
       </c>
       <c r="H22">
-        <v>0.0006612774233487606</v>
+        <v>0.000587307281376126</v>
       </c>
       <c r="I22">
-        <v>0.003392361670032429</v>
+        <v>0.00354748932953175</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2779348728002518</v>
+        <v>0.1842636938029933</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09788303080833849</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05387063032780226</v>
       </c>
       <c r="N22">
-        <v>0.279696152546606</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7688680156138119</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2818746492496871</v>
       </c>
       <c r="Q22">
-        <v>1.820408140644076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7699217342546376</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.154843079375894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.428917997757651</v>
+        <v>4.427805192909375</v>
       </c>
       <c r="C23">
-        <v>0.9280737231775902</v>
+        <v>0.9515100365149749</v>
       </c>
       <c r="D23">
-        <v>0.09800838523214139</v>
+        <v>0.1230305112461849</v>
       </c>
       <c r="E23">
-        <v>0.07043579188117155</v>
+        <v>0.06814333390620519</v>
       </c>
       <c r="F23">
-        <v>0.6696311962577113</v>
+        <v>0.4971201598883965</v>
       </c>
       <c r="G23">
-        <v>0.0007878404404069651</v>
+        <v>0.08767586563254071</v>
       </c>
       <c r="H23">
-        <v>0.0004120794456906607</v>
+        <v>0.0004034295942471067</v>
       </c>
       <c r="I23">
-        <v>0.002743065562799352</v>
+        <v>0.003015710976146835</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2799613184421794</v>
+        <v>0.1983242727087724</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1030842118182651</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05814396507257058</v>
       </c>
       <c r="N23">
-        <v>0.2706923260032141</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7411162018538704</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2743901485930138</v>
       </c>
       <c r="Q23">
-        <v>1.789359275575038</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7429835681809607</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.238907669407723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.801917613739079</v>
+        <v>3.806481537768093</v>
       </c>
       <c r="C24">
-        <v>0.8169436807835666</v>
+        <v>0.8715883470207473</v>
       </c>
       <c r="D24">
-        <v>0.08650482989907005</v>
+        <v>0.09431024737786942</v>
       </c>
       <c r="E24">
-        <v>0.06746031471760894</v>
+        <v>0.06741417209346334</v>
       </c>
       <c r="F24">
-        <v>0.6061960107935889</v>
+        <v>0.5349455725386889</v>
       </c>
       <c r="G24">
-        <v>0.0007931124590286663</v>
+        <v>0.002299880740713967</v>
       </c>
       <c r="H24">
-        <v>4.61868686629785E-07</v>
+        <v>1.276768780766879E-05</v>
       </c>
       <c r="I24">
-        <v>0.001377049127023078</v>
+        <v>0.001859659382453138</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2862679879057133</v>
+        <v>0.2395947650564132</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1211123079422745</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06784471050294272</v>
       </c>
       <c r="N24">
-        <v>0.2370975588767976</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6364255734159201</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2446026920003419</v>
       </c>
       <c r="Q24">
-        <v>1.665389697549159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6400670716886907</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.427685127607845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.126153220182118</v>
+        <v>3.134529214697977</v>
       </c>
       <c r="C25">
-        <v>0.6979116234190599</v>
+        <v>0.7408657785051105</v>
       </c>
       <c r="D25">
-        <v>0.07413198600905702</v>
+        <v>0.0782691298680831</v>
       </c>
       <c r="E25">
-        <v>0.06422472994484063</v>
+        <v>0.06564660052089577</v>
       </c>
       <c r="F25">
-        <v>0.541558854338291</v>
+        <v>0.4864861796323865</v>
       </c>
       <c r="G25">
-        <v>0.0007990349380985245</v>
+        <v>0.0008954058142736088</v>
       </c>
       <c r="H25">
-        <v>0.0005850212317451975</v>
+        <v>0.0002778527890751059</v>
       </c>
       <c r="I25">
-        <v>0.001153993355575089</v>
+        <v>0.001299895150042474</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2951407350023878</v>
+        <v>0.2534234338308856</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.131318441942021</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06626997198794271</v>
       </c>
       <c r="N25">
-        <v>0.2010880125190866</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5237590382214421</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2088811130620627</v>
       </c>
       <c r="Q25">
-        <v>1.543096761318736</v>
+        <v>0.5269298146740766</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.351672950194995</v>
       </c>
     </row>
   </sheetData>
